--- a/LF/PreTAS/Nigeria/november 2022/ng_lf_pretas_2_participant_202211.xlsx
+++ b/LF/PreTAS/Nigeria/november 2022/ng_lf_pretas_2_participant_202211.xlsx
@@ -1369,7 +1369,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="$A12:$XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
